--- a/java开发资料/erp-app测试/erp-app测试用例.xlsx
+++ b/java开发资料/erp-app测试/erp-app测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="登录主菜单" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733">
   <si>
     <t>登录和主菜单模块测试用例</t>
   </si>
@@ -2057,6 +2057,35 @@
     <t>F:\working\java开发资料\erp-app-test\物流模块\031</t>
   </si>
   <si>
+    <t>物流模块→物流报表</t>
+  </si>
+  <si>
+    <t>无条件检索，详细信息</t>
+  </si>
+  <si>
+    <t>a.点击物流模块，选中物流报表b.选中表格某一行，弹出详细信息对话框</t>
+  </si>
+  <si>
+    <t>柱形图和无条件检索到的数据准确无误,详细信息符合选中的行</t>
+  </si>
+  <si>
+    <t>F:\working\java开发资料\erp-app-test\物流模块\032</t>
+  </si>
+  <si>
+    <t>多个条件检索，详细信息</t>
+  </si>
+  <si>
+    <t>a.点击物流模块，选中物流报表
+b.以不同的组合选择下拉菜单框，选中搜索按钮
+c.选中表格某一行，弹出详细信息对话框</t>
+  </si>
+  <si>
+    <t>柱形图和检索到的数据符合检索条件，详细信息符合选中的行并且符合检索条件</t>
+  </si>
+  <si>
+    <t>F:\working\java开发资料\erp-app-test\物流模块\033</t>
+  </si>
+  <si>
     <t>财务模块测试用例</t>
   </si>
   <si>
@@ -2199,6 +2228,33 @@
   </si>
   <si>
     <t>F:\working\java开发资料\erp-app-test\财务模块\015</t>
+  </si>
+  <si>
+    <t>账目统计（客户）</t>
+  </si>
+  <si>
+    <t>a.点击财务模块，选中账目统计 
+b.选中上面表格的某个月份，下面以客户为分类显示统计数据</t>
+  </si>
+  <si>
+    <t>与选中的条目显示相应的统计数据</t>
+  </si>
+  <si>
+    <t>F:\working\java开发资料\erp-app-test\财务模块\016</t>
+  </si>
+  <si>
+    <t>账目显示详情页面</t>
+  </si>
+  <si>
+    <t>a.点击财务模块，选中账目统计 
+b.选中上面表格的某个月份，下面以客户为分类显示统计数据
+c.选中客户分类的数据，弹出详细页面对话框</t>
+  </si>
+  <si>
+    <t>详情显示页面要和月份统计和客户统计显示保持一致</t>
+  </si>
+  <si>
+    <t>F:\working\java开发资料\erp-app-test\财务模块\017</t>
   </si>
 </sst>
 </file>
@@ -2206,10 +2262,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2221,7 +2277,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2229,6 +2363,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2258,105 +2406,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2379,61 +2435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2451,13 +2453,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2475,13 +2549,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2493,73 +2603,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2588,45 +2644,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2638,6 +2655,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2659,6 +2685,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -2666,13 +2703,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2693,10 +2749,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2705,137 +2761,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2871,6 +2927,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3218,12 +3277,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11864,12 +11923,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -20543,12 +20602,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -21758,37 +21817,73 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" ht="40.5" spans="1:13">
       <c r="A39" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="B39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="I39" s="6"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="J39" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" ht="67.5" spans="1:13">
       <c r="A40" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="B40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="I40" s="6"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
+      <c r="J40" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
     </row>
@@ -29652,12 +29747,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -29677,7 +29772,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -29810,16 +29905,16 @@
         <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>540</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>26</v>
@@ -29829,7 +29924,7 @@
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>29</v>
@@ -29845,16 +29940,16 @@
         <v>36</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>621</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>26</v>
@@ -29864,7 +29959,7 @@
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>29</v>
@@ -29880,16 +29975,16 @@
         <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>26</v>
@@ -29899,7 +29994,7 @@
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>29</v>
@@ -29915,28 +30010,28 @@
         <v>36</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>29</v>
@@ -29952,28 +30047,28 @@
         <v>36</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>583</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>585</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>29</v>
@@ -29989,13 +30084,13 @@
         <v>36</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>587</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>589</v>
@@ -30008,7 +30103,7 @@
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>29</v>
@@ -30024,13 +30119,13 @@
         <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>591</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>593</v>
@@ -30043,7 +30138,7 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>29</v>
@@ -30059,13 +30154,13 @@
         <v>36</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>597</v>
@@ -30078,7 +30173,7 @@
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>29</v>
@@ -30094,16 +30189,16 @@
         <v>36</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>26</v>
@@ -30113,7 +30208,7 @@
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>29</v>
@@ -30129,16 +30224,16 @@
         <v>36</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>26</v>
@@ -30148,7 +30243,7 @@
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>29</v>
@@ -30164,13 +30259,13 @@
         <v>36</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>616</v>
@@ -30183,7 +30278,7 @@
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>29</v>
@@ -30199,13 +30294,13 @@
         <v>36</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>552</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>613</v>
@@ -30218,7 +30313,7 @@
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>29</v>
@@ -30234,16 +30329,16 @@
         <v>21</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>650</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>26</v>
@@ -30253,7 +30348,7 @@
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>29</v>
@@ -30269,16 +30364,16 @@
         <v>21</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>654</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>26</v>
@@ -30288,7 +30383,7 @@
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>29</v>
@@ -30304,13 +30399,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>654</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>657</v>
@@ -30321,9 +30416,9 @@
       <c r="H22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="6" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>29</v>
@@ -30331,37 +30426,73 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" ht="67.5" spans="1:13">
       <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="B23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" ht="94.5" spans="1:13">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="B24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
@@ -30376,8 +30507,8 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
@@ -30393,8 +30524,8 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -30410,8 +30541,8 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
@@ -30427,8 +30558,8 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -30444,8 +30575,8 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -30461,8 +30592,8 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -30478,8 +30609,8 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
@@ -30495,8 +30626,8 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
@@ -30512,8 +30643,8 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
@@ -30529,8 +30660,8 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
@@ -30546,8 +30677,8 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
@@ -30563,8 +30694,8 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
@@ -30580,8 +30711,8 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
@@ -30597,8 +30728,8 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
@@ -30614,8 +30745,8 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
@@ -30631,8 +30762,8 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
@@ -30648,8 +30779,8 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
@@ -30665,8 +30796,8 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
@@ -30682,8 +30813,8 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
@@ -30699,8 +30830,8 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
@@ -30716,8 +30847,8 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
@@ -30733,8 +30864,8 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
@@ -30750,8 +30881,8 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
@@ -30767,8 +30898,8 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
@@ -30784,8 +30915,8 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
@@ -30801,8 +30932,8 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
@@ -30818,8 +30949,8 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
@@ -30835,8 +30966,8 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
@@ -30852,8 +30983,8 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
@@ -30869,8 +31000,8 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
@@ -30886,8 +31017,8 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
@@ -30903,8 +31034,8 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
@@ -30920,8 +31051,8 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
@@ -30937,8 +31068,8 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
@@ -30954,8 +31085,8 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
@@ -30971,8 +31102,8 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
@@ -30988,8 +31119,8 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
@@ -31005,8 +31136,8 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
@@ -31022,8 +31153,8 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
@@ -31039,8 +31170,8 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
@@ -31056,8 +31187,8 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
@@ -31073,8 +31204,8 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
@@ -31090,8 +31221,8 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
@@ -31107,8 +31238,8 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
@@ -31124,8 +31255,8 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
@@ -31141,8 +31272,8 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
@@ -31158,8 +31289,8 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
@@ -31175,8 +31306,8 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
@@ -31192,8 +31323,8 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
@@ -31209,8 +31340,8 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
@@ -31226,8 +31357,8 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
@@ -31243,8 +31374,8 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -31260,8 +31391,8 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
@@ -31277,8 +31408,8 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
@@ -31294,8 +31425,8 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
@@ -31311,8 +31442,8 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
@@ -31328,8 +31459,8 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
@@ -31345,8 +31476,8 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
@@ -31362,8 +31493,8 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
@@ -31379,8 +31510,8 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
@@ -31396,8 +31527,8 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
@@ -31413,8 +31544,8 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
@@ -31430,8 +31561,8 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
@@ -31447,8 +31578,8 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
@@ -31464,8 +31595,8 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
@@ -31481,8 +31612,8 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
@@ -31498,8 +31629,8 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
@@ -31515,8 +31646,8 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
@@ -31532,7 +31663,7 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
+      <c r="I93" s="6"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
@@ -31549,7 +31680,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
+      <c r="I94" s="6"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
@@ -31566,7 +31697,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
+      <c r="I95" s="6"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
@@ -31583,7 +31714,7 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
+      <c r="I96" s="6"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -31600,7 +31731,7 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
+      <c r="I97" s="6"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -31617,7 +31748,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
+      <c r="I98" s="6"/>
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
@@ -31634,7 +31765,7 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
+      <c r="I99" s="6"/>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
@@ -31651,7 +31782,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
+      <c r="I100" s="6"/>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
@@ -31668,7 +31799,7 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
+      <c r="I101" s="6"/>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
@@ -31685,7 +31816,7 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
+      <c r="I102" s="6"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
@@ -31702,7 +31833,7 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
+      <c r="I103" s="6"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
@@ -31719,7 +31850,7 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
+      <c r="I104" s="6"/>
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
@@ -31736,7 +31867,7 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
+      <c r="I105" s="6"/>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
@@ -31753,7 +31884,7 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
+      <c r="I106" s="6"/>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
@@ -31770,7 +31901,7 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
+      <c r="I107" s="6"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
@@ -31787,7 +31918,7 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
+      <c r="I108" s="6"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
@@ -31804,7 +31935,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
+      <c r="I109" s="6"/>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
@@ -31821,7 +31952,7 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
+      <c r="I110" s="6"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
@@ -31838,7 +31969,7 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
+      <c r="I111" s="6"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
@@ -31855,7 +31986,7 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
+      <c r="I112" s="6"/>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
@@ -31872,7 +32003,7 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
+      <c r="I113" s="6"/>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
@@ -31889,7 +32020,7 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
+      <c r="I114" s="6"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
@@ -31906,7 +32037,7 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
+      <c r="I115" s="6"/>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
@@ -31923,7 +32054,7 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
+      <c r="I116" s="6"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
@@ -31940,7 +32071,7 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
+      <c r="I117" s="6"/>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
@@ -38483,7 +38614,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B21 B8:B10 B12:B20 B22:B99 B100:B501">
       <formula1>"正常系,异常系"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H21 H22 H8:H10 H12:H20 H23:H99 H100:H501 I22:I37 J23:J37 M8:M21 M22:M501">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H21 H22 H8:H10 H12:H20 H23:H99 H100:H501 M8:M21 M22:M501">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:L11 K21:L21 K100:K501 L100:L501 K8:L10 K12:L20 K22:L99">
